--- a/medicine/Enfance/Pascale_Maret/Pascale_Maret.xlsx
+++ b/medicine/Enfance/Pascale_Maret/Pascale_Maret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascale Maret, née le 31 mars 1957, est une autrice française d'ouvrages pour la jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascale Maret a grandi dans un petit village en Auvergne, dans le logement de fonction qu'occupaient ses parents, instituteurs dans une école primaire. Elle était fille unique et la lecture fut son premier moyen d'évasion. Étant jeune, elle a découvert la danse classique via un roman et rêvé de devenir danseuse étoile mais elle a finalement suivi des études de lettres. Agrégée de lettres modernes et normalienne (Lettres 1976), elle a beaucoup voyagé depuis qu'elle s'est mariée avec un géologue. Elle a enseigné la langue et la littérature française en Côte d'Ivoire, en Argentine, aux Émirats arabes unis, en Birmanie et au Venezuela. À présent, elle se consacre à l'écriture. Son mari et elle ont adopté trois enfants.
 Elle a commencé à écrire vers l’âge de quarante ans et ce n’est qu’après avoir écrit plusieurs romans, qui se sont plutôt bien vendus, qu’elle s’est considérée elle-même comme écrivain. Elle écrit toujours sa première version à la main dans un grand cahier. Cela lui prend beaucoup de temps car elle se décrit comme « paresseuse » lorsqu’elle écrit, ajoutant même avec humour que sa devise pourrait être "Glander beaucoup pour écrire un peu". Cette "lenteur" lui permet aussi de prendre son temps pour bien connaître ses personnages, qu'elle est toujours un peu triste de quitter. Cette première phase peut prendre quatre à cinq mois. Lors de la deuxième phase de l’écriture, celle de la copie sur ordinateur et de la correction, elle est dans un état d’esprit beaucoup plus concentré et travaille beaucoup plus vite.
 Certains de ses livres ont été traduits en plusieurs langues. Ses romans, écrits dans un langage facile à comprendre pour des jeunes, sont pleins d’action et font voyager.
 Pascale Maret réside actuellement[Quand ?] en Haute-Loire.
-Elle a publié chez Kailash, chez Milan, aux éditions Thierry Magnier et chez Nathan, et elle est membre de la Charte des auteurs et des illustrateurs jeunesse[1].
+Elle a publié chez Kailash, chez Milan, aux éditions Thierry Magnier et chez Nathan, et elle est membre de la Charte des auteurs et des illustrateurs jeunesse.
 </t>
         </is>
       </c>
@@ -546,17 +560,19 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aventures en Birmanie a reçu le prix de soutien à la création littéraire de la Fondation Del Duca[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aventures en Birmanie a reçu le prix de soutien à la création littéraire de la Fondation Del Duca.
 Clones en stock a reçu le Prix Goya découverte en 2001, le  Prix Gayant lecture et le Prix Escapage.
 Esclave ! a reçu le prix des enfants du livre au festival du livre de Saint-Orens en 2004 le prix Henri Matisse, et le prix Coup de pouce.
 A vos risques et périls a reçu le Prix de la citoyenneté, le prix Lire@sénart et le Prix Trégor Ados.
 Le monde attend derrière la porte a reçu le prix Jacaranda, le prix des collégiens de Belfort, le prix Aficion'ados et le prix des Incorruptibles 2011.
 Vert jade rouge sang a reçu le Prix NRP de littérature jeunesse 2011.
 L'encrier maudit a reçu le prix Ruralivres, le prix Kilalu, le prix de la ville de La Garde en 2012, le Prix Graines de lecteurs en 2013 et le Prix Super graine de lecteurs en 2017.
-L'oiseau arlequin, illustré par Delphine Jacquot, a reçu le Prix des Incorruptibles 2013, Catégorie CE1[3].
-Bon zigue et Clotaire a reçu le Prix Goya découverte 2016[4]
+L'oiseau arlequin, illustré par Delphine Jacquot, a reçu le Prix des Incorruptibles 2013, Catégorie CE1.
+Bon zigue et Clotaire a reçu le Prix Goya découverte 2016
 N'y pense plus, tout est bien a reçu le Prix des collégiens de Belfort 2018</t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aventures en Birmanie, 1998, nouvelles adultes, Kailash.
 Clones en stock, 2001 (réédité en 2008 et 2018), roman jeunesse, Milan : son premier roman pour la jeunesse est un roman de science-fiction. Quatre Bleu s’enfuit de la fabrique de clones pour être libre et échapper à son sort en se trouvant une identité.
